--- a/biology/Médecine/Mirta_Roses_Periago/Mirta_Roses_Periago.xlsx
+++ b/biology/Médecine/Mirta_Roses_Periago/Mirta_Roses_Periago.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mirta Roses Periago, née le 20 octobre 1945 à Santa Fe, est une épidémiologiste argentine et directrice de l'Organisation panaméricaine de la santé (OPS) jusqu'au 31 janvier 2013.
 </t>
@@ -511,10 +523,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a obtenu son diplôme de médecine en 1969 à l'université nationale de Córdoba en Argentine, et des qualifications supplémentaires en médecine tropicale, santé publique et en épidémiologie auprès d'autres institutions en Argentine.
-Elle a pris ses fonctions en tant que directrice de l'OPS, le 1er février 2003, pour un premier mandat de cinq ans ; elle est la première femme à la tête de l'organisation ainsi que la première femme directeur régional de l'Organisation mondiale de la santé[1]. Elle a été réélue en 2007.
+Elle a pris ses fonctions en tant que directrice de l'OPS, le 1er février 2003, pour un premier mandat de cinq ans ; elle est la première femme à la tête de l'organisation ainsi que la première femme directeur régional de l'Organisation mondiale de la santé. Elle a été réélue en 2007.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mirta Roses Periago a reçu de nombreuses récompenses, dont l'ordre civil de la Santé (Espagne); l'Ordre de la Santé Publique, l'ordre de Marshall Santa Cruz (Forces Armées), la médaille du Mérite agricole, et l'ordre de Bolívar le Libérateur (Bolivie); la Décoration du Mérite de la Santé Publique et l'Ordre national Honorato Vásquez (Équateur); l'ordre José de Marcoleta et de l'ordre de la Liberté Pedro Joaquín Chamorro (Nicaragua); et l'ordre du mérite de Duarte, Sánchez et Mella (République dominicaine).
 En 2003, la Fondation Konex en Argentine lui a accordé le prix Konex de Diamant, l'une des récompenses les plus prestigieuses en Argentine, en tant que l'une des scientifiques les plus importants de la dernière décennie dans son pays.
